--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Inhbb</t>
+  </si>
+  <si>
+    <t>Acvr2a</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Inhbb</t>
-  </si>
-  <si>
-    <t>Acvr2a</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.584700333333333</v>
+        <v>1.40259</v>
       </c>
       <c r="H2">
-        <v>4.754101</v>
+        <v>4.20777</v>
       </c>
       <c r="I2">
-        <v>0.517828937744538</v>
+        <v>0.5454755110174769</v>
       </c>
       <c r="J2">
-        <v>0.5695117169694714</v>
+        <v>0.5860167207731164</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N2">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O2">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P2">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q2">
-        <v>20.76434642760378</v>
+        <v>12.9626385987</v>
       </c>
       <c r="R2">
-        <v>186.879117848434</v>
+        <v>116.6637473883</v>
       </c>
       <c r="S2">
-        <v>0.1054689855389152</v>
+        <v>0.08012699992561874</v>
       </c>
       <c r="T2">
-        <v>0.12111051299096</v>
+        <v>0.09198419641674654</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.584700333333333</v>
+        <v>1.40259</v>
       </c>
       <c r="H3">
-        <v>4.754101</v>
+        <v>4.20777</v>
       </c>
       <c r="I3">
-        <v>0.517828937744538</v>
+        <v>0.5454755110174769</v>
       </c>
       <c r="J3">
-        <v>0.5695117169694714</v>
+        <v>0.5860167207731164</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>88.626007</v>
       </c>
       <c r="O3">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P3">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q3">
-        <v>46.81522094496744</v>
+        <v>41.43531705271</v>
       </c>
       <c r="R3">
-        <v>421.3369885047071</v>
+        <v>372.91785347439</v>
       </c>
       <c r="S3">
-        <v>0.2377899963314998</v>
+        <v>0.2561274559281047</v>
       </c>
       <c r="T3">
-        <v>0.2730553279968777</v>
+        <v>0.2940292065805863</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.584700333333333</v>
+        <v>1.40259</v>
       </c>
       <c r="H4">
-        <v>4.754101</v>
+        <v>4.20777</v>
       </c>
       <c r="I4">
-        <v>0.517828937744538</v>
+        <v>0.5454755110174769</v>
       </c>
       <c r="J4">
-        <v>0.5695117169694714</v>
+        <v>0.5860167207731164</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N4">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O4">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P4">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q4">
-        <v>9.374843656382112</v>
+        <v>10.30879992982</v>
       </c>
       <c r="R4">
-        <v>84.373592907439</v>
+        <v>92.77919936837999</v>
       </c>
       <c r="S4">
-        <v>0.04761793266510529</v>
+        <v>0.06372261364231391</v>
       </c>
       <c r="T4">
-        <v>0.05467988739222311</v>
+        <v>0.07315228842842257</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.584700333333333</v>
+        <v>1.40259</v>
       </c>
       <c r="H5">
-        <v>4.754101</v>
+        <v>4.20777</v>
       </c>
       <c r="I5">
-        <v>0.517828937744538</v>
+        <v>0.5454755110174769</v>
       </c>
       <c r="J5">
-        <v>0.5695117169694714</v>
+        <v>0.5860167207731164</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N5">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O5">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P5">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q5">
-        <v>12.91714517670317</v>
+        <v>16.986064091115</v>
       </c>
       <c r="R5">
-        <v>77.50287106021901</v>
+        <v>101.91638454669</v>
       </c>
       <c r="S5">
-        <v>0.06561045408270971</v>
+        <v>0.1049973233305928</v>
       </c>
       <c r="T5">
-        <v>0.05022718739494526</v>
+        <v>0.08035655414895043</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.584700333333333</v>
+        <v>1.40259</v>
       </c>
       <c r="H6">
-        <v>4.754101</v>
+        <v>4.20777</v>
       </c>
       <c r="I6">
-        <v>0.517828937744538</v>
+        <v>0.5454755110174769</v>
       </c>
       <c r="J6">
-        <v>0.5695117169694714</v>
+        <v>0.5860167207731164</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N6">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O6">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P6">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q6">
-        <v>12.07670278843722</v>
+        <v>6.552115497130001</v>
       </c>
       <c r="R6">
-        <v>108.690325095935</v>
+        <v>58.96903947417</v>
       </c>
       <c r="S6">
-        <v>0.06134156912630795</v>
+        <v>0.04050111819084676</v>
       </c>
       <c r="T6">
-        <v>0.07043880119446536</v>
+        <v>0.04649447519841043</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>1.905203</v>
       </c>
       <c r="I7">
-        <v>0.2075196226747617</v>
+        <v>0.2469815555548498</v>
       </c>
       <c r="J7">
-        <v>0.2282314640991825</v>
+        <v>0.2653378902523436</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N7">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O7">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P7">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q7">
-        <v>8.321298833766889</v>
+        <v>5.869250920596667</v>
       </c>
       <c r="R7">
-        <v>74.89168950390199</v>
+        <v>52.82325828537</v>
       </c>
       <c r="S7">
-        <v>0.04226662993817295</v>
+        <v>0.03628007249428762</v>
       </c>
       <c r="T7">
-        <v>0.04853496227402741</v>
+        <v>0.0416487989994165</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>1.905203</v>
       </c>
       <c r="I8">
-        <v>0.2075196226747617</v>
+        <v>0.2469815555548498</v>
       </c>
       <c r="J8">
-        <v>0.2282314640991825</v>
+        <v>0.2653378902523436</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>88.626007</v>
       </c>
       <c r="O8">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P8">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q8">
         <v>18.76117049049122</v>
@@ -948,10 +948,10 @@
         <v>168.850534414421</v>
       </c>
       <c r="S8">
-        <v>0.09529419218917781</v>
+        <v>0.1159699312026543</v>
       </c>
       <c r="T8">
-        <v>0.1094267517803335</v>
+        <v>0.1331311660249854</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -980,10 +980,10 @@
         <v>1.905203</v>
       </c>
       <c r="I9">
-        <v>0.2075196226747617</v>
+        <v>0.2469815555548498</v>
       </c>
       <c r="J9">
-        <v>0.2282314640991825</v>
+        <v>0.2653378902523436</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N9">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O9">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P9">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q9">
-        <v>3.756962727268556</v>
+        <v>4.667640235253556</v>
       </c>
       <c r="R9">
-        <v>33.812664545417</v>
+        <v>42.008762117282</v>
       </c>
       <c r="S9">
-        <v>0.01908285670989249</v>
+        <v>0.02885245977778667</v>
       </c>
       <c r="T9">
-        <v>0.02191293064647252</v>
+        <v>0.03312204787112793</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1042,10 +1042,10 @@
         <v>1.905203</v>
       </c>
       <c r="I10">
-        <v>0.2075196226747617</v>
+        <v>0.2469815555548498</v>
       </c>
       <c r="J10">
-        <v>0.2282314640991825</v>
+        <v>0.2653378902523436</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N10">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O10">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P10">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q10">
-        <v>5.176537844292834</v>
+        <v>7.690986024565166</v>
       </c>
       <c r="R10">
-        <v>31.059227065757</v>
+        <v>46.14591614739099</v>
       </c>
       <c r="S10">
-        <v>0.02629334840587964</v>
+        <v>0.04754091012612749</v>
       </c>
       <c r="T10">
-        <v>0.0201285139096565</v>
+        <v>0.03638401054103309</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>1.905203</v>
       </c>
       <c r="I11">
-        <v>0.2075196226747617</v>
+        <v>0.2469815555548498</v>
       </c>
       <c r="J11">
-        <v>0.2282314640991825</v>
+        <v>0.2653378902523436</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N11">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O11">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P11">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q11">
-        <v>4.839731083256111</v>
+        <v>2.966680712462556</v>
       </c>
       <c r="R11">
-        <v>43.55757974930499</v>
+        <v>26.700126412163</v>
       </c>
       <c r="S11">
-        <v>0.02458259543163877</v>
+        <v>0.01833818195399364</v>
       </c>
       <c r="T11">
-        <v>0.0282283054886926</v>
+        <v>0.02105186681578061</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.007355666666666667</v>
+        <v>0.5336585</v>
       </c>
       <c r="H12">
-        <v>0.022067</v>
+        <v>1.067317</v>
       </c>
       <c r="I12">
-        <v>0.002403594532217283</v>
+        <v>0.2075429334276733</v>
       </c>
       <c r="J12">
-        <v>0.002643489286063827</v>
+        <v>0.14864538897454</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N12">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O12">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P12">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q12">
-        <v>0.09638138369755556</v>
+        <v>4.932034500905</v>
       </c>
       <c r="R12">
-        <v>0.8674324532779999</v>
+        <v>29.59220700543</v>
       </c>
       <c r="S12">
-        <v>0.0004895529362727554</v>
+        <v>0.03048678130444806</v>
       </c>
       <c r="T12">
-        <v>0.0005621558503219672</v>
+        <v>0.02333214423956934</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.007355666666666667</v>
+        <v>0.5336585</v>
       </c>
       <c r="H13">
-        <v>0.022067</v>
+        <v>1.067317</v>
       </c>
       <c r="I13">
-        <v>0.002403594532217283</v>
+        <v>0.2075429334276733</v>
       </c>
       <c r="J13">
-        <v>0.002643489286063827</v>
+        <v>0.14864538897454</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>88.626007</v>
       </c>
       <c r="O13">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P13">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q13">
-        <v>0.2173011218298889</v>
+        <v>15.76534065220317</v>
       </c>
       <c r="R13">
-        <v>1.955710096469</v>
+        <v>94.592043913219</v>
       </c>
       <c r="S13">
-        <v>0.001103744293410511</v>
+        <v>0.09745156741414701</v>
       </c>
       <c r="T13">
-        <v>0.001267434562897822</v>
+        <v>0.07458163603998594</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.007355666666666667</v>
+        <v>0.5336585</v>
       </c>
       <c r="H14">
-        <v>0.022067</v>
+        <v>1.067317</v>
       </c>
       <c r="I14">
-        <v>0.002403594532217283</v>
+        <v>0.2075429334276733</v>
       </c>
       <c r="J14">
-        <v>0.002643489286063827</v>
+        <v>0.14864538897454</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N14">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O14">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P14">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q14">
-        <v>0.04351499367922222</v>
+        <v>3.922299964599667</v>
       </c>
       <c r="R14">
-        <v>0.391634943113</v>
+        <v>23.533799787598</v>
       </c>
       <c r="S14">
-        <v>0.0002210270501448914</v>
+        <v>0.02424522805127427</v>
       </c>
       <c r="T14">
-        <v>0.0002538063610941769</v>
+        <v>0.01855535854587078</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.007355666666666667</v>
+        <v>0.5336585</v>
       </c>
       <c r="H15">
-        <v>0.022067</v>
+        <v>1.067317</v>
       </c>
       <c r="I15">
-        <v>0.002403594532217283</v>
+        <v>0.2075429334276733</v>
       </c>
       <c r="J15">
-        <v>0.002643489286063827</v>
+        <v>0.14864538897454</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N15">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O15">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P15">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q15">
-        <v>0.05995721222883334</v>
+        <v>6.46287046376225</v>
       </c>
       <c r="R15">
-        <v>0.359743273373</v>
+        <v>25.851481855049</v>
       </c>
       <c r="S15">
-        <v>0.0003045425181844381</v>
+        <v>0.03994946069244696</v>
       </c>
       <c r="T15">
-        <v>0.0002331383671159399</v>
+        <v>0.02038274817886798</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.007355666666666667</v>
+        <v>0.5336585</v>
       </c>
       <c r="H16">
-        <v>0.022067</v>
+        <v>1.067317</v>
       </c>
       <c r="I16">
-        <v>0.002403594532217283</v>
+        <v>0.2075429334276733</v>
       </c>
       <c r="J16">
-        <v>0.002643489286063827</v>
+        <v>0.14864538897454</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N16">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O16">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P16">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q16">
-        <v>0.05605615034944444</v>
+        <v>2.492953841126167</v>
       </c>
       <c r="R16">
-        <v>0.504505353145</v>
+        <v>14.957723046757</v>
       </c>
       <c r="S16">
-        <v>0.0002847277342046872</v>
+        <v>0.01540989596535695</v>
       </c>
       <c r="T16">
-        <v>0.0003269541446339206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.833154</v>
-      </c>
-      <c r="H17">
-        <v>1.666308</v>
-      </c>
-      <c r="I17">
-        <v>0.272247845048483</v>
-      </c>
-      <c r="J17">
-        <v>0.1996133296452823</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>13.10301133333333</v>
-      </c>
-      <c r="N17">
-        <v>39.309034</v>
-      </c>
-      <c r="O17">
-        <v>0.2036753411238415</v>
-      </c>
-      <c r="P17">
-        <v>0.2126567538160977</v>
-      </c>
-      <c r="Q17">
-        <v>10.916826304412</v>
-      </c>
-      <c r="R17">
-        <v>65.50095782647199</v>
-      </c>
-      <c r="S17">
-        <v>0.05545017271048052</v>
-      </c>
-      <c r="T17">
-        <v>0.04244912270078836</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.833154</v>
-      </c>
-      <c r="H18">
-        <v>1.666308</v>
-      </c>
-      <c r="I18">
-        <v>0.272247845048483</v>
-      </c>
-      <c r="J18">
-        <v>0.1996133296452823</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>29.54200233333333</v>
-      </c>
-      <c r="N18">
-        <v>88.626007</v>
-      </c>
-      <c r="O18">
-        <v>0.4592056932299319</v>
-      </c>
-      <c r="P18">
-        <v>0.479455154057023</v>
-      </c>
-      <c r="Q18">
-        <v>24.613037412026</v>
-      </c>
-      <c r="R18">
-        <v>147.678224472156</v>
-      </c>
-      <c r="S18">
-        <v>0.1250177604158437</v>
-      </c>
-      <c r="T18">
-        <v>0.09570563971691412</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.833154</v>
-      </c>
-      <c r="H19">
-        <v>1.666308</v>
-      </c>
-      <c r="I19">
-        <v>0.272247845048483</v>
-      </c>
-      <c r="J19">
-        <v>0.1996133296452823</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>5.915846333333334</v>
-      </c>
-      <c r="N19">
-        <v>17.747539</v>
-      </c>
-      <c r="O19">
-        <v>0.09195687840951981</v>
-      </c>
-      <c r="P19">
-        <v>0.09601187431786275</v>
-      </c>
-      <c r="Q19">
-        <v>4.928811036002</v>
-      </c>
-      <c r="R19">
-        <v>29.572866216012</v>
-      </c>
-      <c r="S19">
-        <v>0.02503506198437715</v>
-      </c>
-      <c r="T19">
-        <v>0.01916524991807295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.833154</v>
-      </c>
-      <c r="H20">
-        <v>1.666308</v>
-      </c>
-      <c r="I20">
-        <v>0.272247845048483</v>
-      </c>
-      <c r="J20">
-        <v>0.1996133296452823</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>8.1511595</v>
-      </c>
-      <c r="N20">
-        <v>16.302319</v>
-      </c>
-      <c r="O20">
-        <v>0.1267029501450487</v>
-      </c>
-      <c r="P20">
-        <v>0.08819342236226138</v>
-      </c>
-      <c r="Q20">
-        <v>6.791171142063</v>
-      </c>
-      <c r="R20">
-        <v>27.164684568252</v>
-      </c>
-      <c r="S20">
-        <v>0.03449460513827488</v>
-      </c>
-      <c r="T20">
-        <v>0.01760458269054369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.833154</v>
-      </c>
-      <c r="H21">
-        <v>1.666308</v>
-      </c>
-      <c r="I21">
-        <v>0.272247845048483</v>
-      </c>
-      <c r="J21">
-        <v>0.1996133296452823</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>7.620811666666666</v>
-      </c>
-      <c r="N21">
-        <v>22.862435</v>
-      </c>
-      <c r="O21">
-        <v>0.1184591370916582</v>
-      </c>
-      <c r="P21">
-        <v>0.123682795446755</v>
-      </c>
-      <c r="Q21">
-        <v>6.349309723329998</v>
-      </c>
-      <c r="R21">
-        <v>38.09585833997999</v>
-      </c>
-      <c r="S21">
-        <v>0.03225024479950676</v>
-      </c>
-      <c r="T21">
-        <v>0.02468873461896312</v>
+        <v>0.01179350197024596</v>
       </c>
     </row>
   </sheetData>
